--- a/Carrizo Shrub Photo density Sheet.xlsx
+++ b/Carrizo Shrub Photo density Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7695" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7813" uniqueCount="535">
   <si>
     <t>year</t>
   </si>
@@ -1609,6 +1609,30 @@
   <si>
     <t>IMG_0274</t>
   </si>
+  <si>
+    <t>walking into view</t>
+  </si>
+  <si>
+    <t>standing in distance</t>
+  </si>
+  <si>
+    <t>same individual</t>
+  </si>
+  <si>
+    <t>inview of camera</t>
+  </si>
+  <si>
+    <t>in distance</t>
+  </si>
+  <si>
+    <t>across screen</t>
+  </si>
+  <si>
+    <t>in dark, can see eyes</t>
+  </si>
+  <si>
+    <t>across camera view</t>
+  </si>
 </sst>
 </file>
 
@@ -1926,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1089"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1027" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Q1042" sqref="Q1042"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1056" zoomScale="99" workbookViewId="0">
+      <selection activeCell="Q1072" sqref="Q1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56143,7 +56167,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1041" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>2019</v>
       </c>
@@ -56193,7 +56217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="1042" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>2019</v>
       </c>
@@ -56243,7 +56267,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="1043" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>2019</v>
       </c>
@@ -56293,7 +56317,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="1044" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>2019</v>
       </c>
@@ -56343,7 +56367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="1045" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>2019</v>
       </c>
@@ -56393,7 +56417,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="1046" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>2019</v>
       </c>
@@ -56427,8 +56451,23 @@
       <c r="L1046">
         <v>1042</v>
       </c>
-    </row>
-    <row r="1047" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1046">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1046" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1046" s="1">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="Q1046" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>2019</v>
       </c>
@@ -56462,8 +56501,29 @@
       <c r="L1047">
         <v>1043</v>
       </c>
-    </row>
-    <row r="1048" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1047">
+        <v>1</v>
+      </c>
+      <c r="N1047" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1047" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1047" s="1">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="Q1047" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1047" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1047" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>2019</v>
       </c>
@@ -56497,8 +56557,23 @@
       <c r="L1048">
         <v>1044</v>
       </c>
-    </row>
-    <row r="1049" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1048">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1048" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1048" s="1">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="Q1048" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>2019</v>
       </c>
@@ -56532,8 +56607,29 @@
       <c r="L1049">
         <v>1045</v>
       </c>
-    </row>
-    <row r="1050" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1049">
+        <v>1</v>
+      </c>
+      <c r="N1049" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1049" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1049" s="1">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="Q1049" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1049" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1049" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>2019</v>
       </c>
@@ -56567,8 +56663,29 @@
       <c r="L1050">
         <v>1046</v>
       </c>
-    </row>
-    <row r="1051" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1050">
+        <v>1</v>
+      </c>
+      <c r="N1050" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1050" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1050" s="1">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="Q1050" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1050" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1050" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>2019</v>
       </c>
@@ -56602,8 +56719,23 @@
       <c r="L1051">
         <v>1047</v>
       </c>
-    </row>
-    <row r="1052" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1051">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1051" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1051" s="1">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="Q1051" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>2019</v>
       </c>
@@ -56637,8 +56769,23 @@
       <c r="L1052">
         <v>1048</v>
       </c>
-    </row>
-    <row r="1053" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1052">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1052" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1052" s="1">
+        <v>0.8027777777777777</v>
+      </c>
+      <c r="Q1052" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>2019</v>
       </c>
@@ -56672,8 +56819,23 @@
       <c r="L1053">
         <v>1049</v>
       </c>
-    </row>
-    <row r="1054" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1053">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1053" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1053" s="1">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="Q1053" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>2019</v>
       </c>
@@ -56707,8 +56869,23 @@
       <c r="L1054">
         <v>1050</v>
       </c>
-    </row>
-    <row r="1055" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1054">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1054" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1054" s="1">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="Q1054" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>2019</v>
       </c>
@@ -56742,8 +56919,23 @@
       <c r="L1055">
         <v>1051</v>
       </c>
-    </row>
-    <row r="1056" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M1055">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1055" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1055" s="1">
+        <v>0.88958333333333339</v>
+      </c>
+      <c r="Q1055" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>2019</v>
       </c>
@@ -56777,8 +56969,29 @@
       <c r="L1056">
         <v>1052</v>
       </c>
-    </row>
-    <row r="1057" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1056">
+        <v>1</v>
+      </c>
+      <c r="N1056" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1056" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1056" s="1">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="Q1056" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1056" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1056" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>2019</v>
       </c>
@@ -56812,8 +57025,29 @@
       <c r="L1057">
         <v>1053</v>
       </c>
-    </row>
-    <row r="1058" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1057">
+        <v>1</v>
+      </c>
+      <c r="N1057" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1057" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1057" s="1">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="Q1057" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1057" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1057" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>2019</v>
       </c>
@@ -56847,8 +57081,29 @@
       <c r="L1058">
         <v>1054</v>
       </c>
-    </row>
-    <row r="1059" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1058">
+        <v>1</v>
+      </c>
+      <c r="N1058" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1058" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1058" s="1">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="Q1058" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1058" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1058" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>2019</v>
       </c>
@@ -56882,8 +57137,23 @@
       <c r="L1059">
         <v>1055</v>
       </c>
-    </row>
-    <row r="1060" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1059">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1059" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1059" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q1059" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>2019</v>
       </c>
@@ -56917,8 +57187,23 @@
       <c r="L1060">
         <v>1056</v>
       </c>
-    </row>
-    <row r="1061" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1060">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1060" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1060" s="1">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="Q1060" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>2019</v>
       </c>
@@ -56952,8 +57237,29 @@
       <c r="L1061">
         <v>1057</v>
       </c>
-    </row>
-    <row r="1062" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1061">
+        <v>1</v>
+      </c>
+      <c r="N1061" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1061" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1061" s="1">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="Q1061" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1061" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1061" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>2019</v>
       </c>
@@ -56987,8 +57293,23 @@
       <c r="L1062">
         <v>1058</v>
       </c>
-    </row>
-    <row r="1063" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1062">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1062" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1062" s="1">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="Q1062" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>2019</v>
       </c>
@@ -57022,8 +57343,23 @@
       <c r="L1063">
         <v>1059</v>
       </c>
-    </row>
-    <row r="1064" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1063">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1063" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1063" s="1">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="Q1063" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>2019</v>
       </c>
@@ -57057,8 +57393,29 @@
       <c r="L1064">
         <v>1060</v>
       </c>
-    </row>
-    <row r="1065" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1064">
+        <v>1</v>
+      </c>
+      <c r="N1064" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1064" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1064" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="Q1064" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1064" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1064" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>2019</v>
       </c>
@@ -57078,7 +57435,7 @@
         <v>4</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1065">
         <v>4</v>
@@ -57092,8 +57449,29 @@
       <c r="L1065">
         <v>1061</v>
       </c>
-    </row>
-    <row r="1066" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1065">
+        <v>1</v>
+      </c>
+      <c r="N1065" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1065" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1065" s="1">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="Q1065" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1065" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1065" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>2019</v>
       </c>
@@ -57113,7 +57491,7 @@
         <v>4</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1066">
         <v>4</v>
@@ -57127,8 +57505,29 @@
       <c r="L1066">
         <v>1062</v>
       </c>
-    </row>
-    <row r="1067" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1066">
+        <v>1</v>
+      </c>
+      <c r="N1066" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1066" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1066" s="1">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="Q1066" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1066" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1066" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>2019</v>
       </c>
@@ -57148,7 +57547,7 @@
         <v>4</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1067">
         <v>4</v>
@@ -57162,8 +57561,29 @@
       <c r="L1067">
         <v>1063</v>
       </c>
-    </row>
-    <row r="1068" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1067">
+        <v>1</v>
+      </c>
+      <c r="N1067" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1067" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1067" s="1">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="Q1067" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1067" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1067" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>2019</v>
       </c>
@@ -57183,7 +57603,7 @@
         <v>4</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1068">
         <v>4</v>
@@ -57197,8 +57617,29 @@
       <c r="L1068">
         <v>1064</v>
       </c>
-    </row>
-    <row r="1069" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1068">
+        <v>1</v>
+      </c>
+      <c r="N1068" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1068" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1068" s="1">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="Q1068" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1068" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1068" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>2019</v>
       </c>
@@ -57218,7 +57659,7 @@
         <v>4</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1069">
         <v>4</v>
@@ -57232,8 +57673,23 @@
       <c r="L1069">
         <v>1065</v>
       </c>
-    </row>
-    <row r="1070" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1069">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1069" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1069" s="1">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="Q1069" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>2019</v>
       </c>
@@ -57253,7 +57709,7 @@
         <v>4</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1070">
         <v>4</v>
@@ -57267,8 +57723,29 @@
       <c r="L1070">
         <v>1066</v>
       </c>
-    </row>
-    <row r="1071" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1070">
+        <v>1</v>
+      </c>
+      <c r="N1070" t="s">
+        <v>456</v>
+      </c>
+      <c r="O1070" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1070" s="1">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="Q1070" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1070" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1070" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>2019</v>
       </c>
@@ -57288,7 +57765,7 @@
         <v>4</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1071">
         <v>4</v>
@@ -57302,8 +57779,29 @@
       <c r="L1071">
         <v>1067</v>
       </c>
-    </row>
-    <row r="1072" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1071">
+        <v>1</v>
+      </c>
+      <c r="N1071" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1071" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1071" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="Q1071" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1071" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1071" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>2019</v>
       </c>
@@ -57323,7 +57821,7 @@
         <v>4</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1072">
         <v>4</v>
@@ -57337,8 +57835,23 @@
       <c r="L1072">
         <v>1068</v>
       </c>
-    </row>
-    <row r="1073" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1072">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1072" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1072" s="1">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="Q1072" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>2019</v>
       </c>
@@ -57358,7 +57871,7 @@
         <v>4</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1073">
         <v>4</v>
@@ -57372,8 +57885,23 @@
       <c r="L1073">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1074" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1073">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1073" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1073" s="1">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="Q1073" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>2019</v>
       </c>
@@ -57393,7 +57921,7 @@
         <v>4</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1074">
         <v>4</v>
@@ -57407,8 +57935,23 @@
       <c r="L1074">
         <v>1070</v>
       </c>
-    </row>
-    <row r="1075" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1074">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1074" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1074" s="1">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="Q1074" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>2019</v>
       </c>
@@ -57428,7 +57971,7 @@
         <v>4</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1075">
         <v>4</v>
@@ -57442,8 +57985,23 @@
       <c r="L1075">
         <v>1071</v>
       </c>
-    </row>
-    <row r="1076" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1075">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1075" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1075" s="1">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="Q1075" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>2019</v>
       </c>
@@ -57463,7 +58021,7 @@
         <v>4</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1076">
         <v>4</v>
@@ -57478,7 +58036,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="1077" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>2019</v>
       </c>
@@ -57498,7 +58056,7 @@
         <v>4</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1077">
         <v>4</v>
@@ -57513,7 +58071,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="1078" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>2019</v>
       </c>
@@ -57533,7 +58091,7 @@
         <v>4</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1078">
         <v>4</v>
@@ -57548,7 +58106,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="1079" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>2019</v>
       </c>
@@ -57568,7 +58126,7 @@
         <v>4</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1079">
         <v>4</v>
@@ -57583,7 +58141,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1080" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>2019</v>
       </c>
@@ -57603,7 +58161,7 @@
         <v>4</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1080">
         <v>4</v>
@@ -57618,7 +58176,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="1081" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>2019</v>
       </c>
@@ -57638,7 +58196,7 @@
         <v>4</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1081">
         <v>4</v>
@@ -57653,7 +58211,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="1082" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>2019</v>
       </c>
@@ -57673,7 +58231,7 @@
         <v>4</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1082">
         <v>4</v>
@@ -57688,7 +58246,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="1083" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>2019</v>
       </c>
@@ -57708,7 +58266,7 @@
         <v>4</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1083">
         <v>4</v>
@@ -57723,7 +58281,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="1084" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>2019</v>
       </c>
@@ -57743,7 +58301,7 @@
         <v>4</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1084">
         <v>4</v>
@@ -57758,7 +58316,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="1085" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1085">
         <v>2019</v>
       </c>
@@ -57778,7 +58336,7 @@
         <v>4</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1085">
         <v>4</v>
@@ -57793,7 +58351,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="1086" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1086">
         <v>2019</v>
       </c>
@@ -57813,7 +58371,7 @@
         <v>4</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1086">
         <v>4</v>
@@ -57828,7 +58386,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="1087" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1087">
         <v>2019</v>
       </c>
@@ -57848,7 +58406,7 @@
         <v>4</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1087">
         <v>4</v>
@@ -57863,7 +58421,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="1088" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1088">
         <v>2019</v>
       </c>
@@ -57883,7 +58441,7 @@
         <v>4</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1088">
         <v>4</v>
@@ -57918,7 +58476,7 @@
         <v>4</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1089">
         <v>4</v>
